--- a/biology/Zoologie/Géant_des_Flandres/Géant_des_Flandres.xlsx
+++ b/biology/Zoologie/Géant_des_Flandres/Géant_des_Flandres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ant_des_Flandres</t>
+          <t>Géant_des_Flandres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le géant des Flandres (Oryctolagus cuniculus) est une race de lapin européen domestique d'origine belge (région des Flandres).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ant_des_Flandres</t>
+          <t>Géant_des_Flandres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XIXe siècle, les opinions se sont passionnées pour savoir s'il venait d'Amérique, voire plus précisément de Patagonie, ou tout simplement d'Europe. 
 Demusset, dans le Cours d'Agriculture de l'abbé Rozier (1809) signalait l'arrivée du lapin américain en Europe. C'était ce fameux lapin patagonien, dont certains ont voulu faire l'ancêtre du géant des Flandres. 
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9ant_des_Flandres</t>
+          <t>Géant_des_Flandres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,14 +564,16 @@
           <t>Apparence physique et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le géant des Flandres est un très grand lapin. Son poids peut atteindre 10 kg mais généralement compris entre 6,5 à 8 kg. Il a un grand corps, large et profond. Vu de dessus il a la forme d'un rectangle. Il a une puissante musculature avec des pattes fortes. Ses oreilles sont grandes, épaisses portées droites d'une longueur de 20 cm environ. Il existe en dix variétés de couleurs reconnues : gris garenne, gris lièvre, gris foncé, gris fer, noire, bleue, gris bleu, bleu-gris garenne, couleur lièvre et couleur jaune. Le standard français exige les caractéristiques suivantes :
 corps grand, long, large et profond. Vu de dessus forme d’un rectangle ;
 puissante musculature. Bonne adhérence de la peau ;
 pattes fortes ;
 oreilles grandes, épaisses, portées droites, de longueur comprises entre 19 et 20 cm.
-Le lapin le plus long du monde est un spécimen de géant des Flandres nommé Darius qui mesurait 129 centimètres[1].
+Le lapin le plus long du monde est un spécimen de géant des Flandres nommé Darius qui mesurait 129 centimètres.
 Les géants des Flandres sont connus pour avoir un tempérament calme, docile et détendu et ils peuvent tolérer la présence d'autres espèces.
 </t>
         </is>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9ant_des_Flandres</t>
+          <t>Géant_des_Flandres</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Élevage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les soins et besoins alimentaires sont les mêmes que pour tous les lapins domestiques.
 L'âge idéal de la femelle géant des Flandres pour commencer l'élevage est entre dix et douze mois. La gestation est de 31 jours et elle produit entre sept et dix petits par portée. Un géant des Flandres est capable de vivre à l'extérieur comme à l'intérieur. Il peut vivre dans un clapier à condition d'être à l'abri de la pluie, de la neige ou de la chaleur. À l'intérieur, il est vivement conseillé de les faire vivre en liberté ou dans un parc adapté (enclos). Un lapin domestique doit pouvoir se lever, s'amuser et se dégourdir les pattes aisément. On associe souvent le comportement d'un lapin en liberté à celui d'un chat.
